--- a/SourceDataTables/Fig3d.xlsx
+++ b/SourceDataTables/Fig3d.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="2">
   <si>
     <t>PC1_loading</t>
   </si>
@@ -39,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -49,14 +49,46 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -74,10 +106,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
     </row>

--- a/SourceDataTables/Fig3d.xlsx
+++ b/SourceDataTables/Fig3d.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="2">
   <si>
     <t>PC1_loading</t>
   </si>
@@ -39,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -65,11 +65,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -89,6 +93,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -106,10 +114,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
     </row>

--- a/SourceDataTables/Fig3d.xlsx
+++ b/SourceDataTables/Fig3d.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
   <si>
     <t>PC1_loading</t>
   </si>
@@ -39,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -53,27 +53,11 @@
     <border/>
     <border/>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -81,22 +65,6 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -114,16 +82,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>-0.064886504116895172</v>
+        <v>-0.063745853010799283</v>
       </c>
       <c r="B2">
         <v>20.74951443730842</v>
@@ -131,7 +99,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>-0.19377810205355434</v>
+        <v>-0.19286554580897575</v>
       </c>
       <c r="B3">
         <v>24.745110807079953</v>
@@ -139,7 +107,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.17181713213293623</v>
+        <v>0.17319921595921861</v>
       </c>
       <c r="B4">
         <v>20.567157755010648</v>
@@ -147,7 +115,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.8775938213525335</v>
+        <v>0.87858033163980409</v>
       </c>
       <c r="B5">
         <v>23.591157963225893</v>
@@ -155,7 +123,7 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>1.2007530722910167</v>
+        <v>1.2004853732444776</v>
       </c>
       <c r="B6">
         <v>24.30035961375517</v>
@@ -163,7 +131,7 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>-0.24445646690464309</v>
+        <v>-0.24365411094172879</v>
       </c>
       <c r="B7">
         <v>27.440511645692766</v>
@@ -171,7 +139,7 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>-0.1002440569953475</v>
+        <v>-0.099252317708671919</v>
       </c>
       <c r="B8">
         <v>25.249359505665876</v>
@@ -179,7 +147,7 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.1655835173735454</v>
+        <v>0.1669505085438894</v>
       </c>
       <c r="B9">
         <v>18.706630472961532</v>
@@ -187,7 +155,7 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.069959514293634437</v>
+        <v>0.071264646131254272</v>
       </c>
       <c r="B10">
         <v>17.713202162349926</v>
@@ -195,7 +163,7 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.36237675717029638</v>
+        <v>0.36374545118323393</v>
       </c>
       <c r="B11">
         <v>19.01891337623281</v>
@@ -203,7 +171,7 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.65892407367830419</v>
+        <v>0.65944517788254708</v>
       </c>
       <c r="B12">
         <v>19.667308974034579</v>
@@ -211,7 +179,7 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.31527279602669639</v>
+        <v>0.31664226582669153</v>
       </c>
       <c r="B13">
         <v>17.471215281183319</v>
@@ -219,7 +187,7 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>-0.23692334308288404</v>
+        <v>-0.23604793224810058</v>
       </c>
       <c r="B14">
         <v>32.404183281792534</v>
@@ -227,7 +195,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>-0.25582566887295632</v>
+        <v>-0.25504821651002385</v>
       </c>
       <c r="B15">
         <v>12.9040650261773</v>
@@ -235,7 +203,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>-0.11105510618940748</v>
+        <v>-0.10999932119640968</v>
       </c>
       <c r="B16">
         <v>26.713002326162869</v>
@@ -243,7 +211,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.37385623767031223</v>
+        <v>0.37519645942576035</v>
       </c>
       <c r="B17">
         <v>22.990450840810965</v>
@@ -251,7 +219,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.068772149286058668</v>
+        <v>0.069983675450827301</v>
       </c>
       <c r="B18">
         <v>15.726939322175207</v>
@@ -259,7 +227,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.050892902447129407</v>
+        <v>0.052144444310580913</v>
       </c>
       <c r="B19">
         <v>17.416016905425025</v>
@@ -267,7 +235,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>0.42418681405652958</v>
+        <v>0.42554967288386647</v>
       </c>
       <c r="B20">
         <v>17.898708416757064</v>
@@ -275,7 +243,7 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.26461380428422993</v>
+        <v>0.26490498368293225</v>
       </c>
       <c r="B21">
         <v>19.067351304365125</v>
@@ -283,7 +251,7 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.20237835733991058</v>
+        <v>0.20364991199353358</v>
       </c>
       <c r="B22">
         <v>15.661633338872207</v>
@@ -291,7 +259,7 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>-0.22803265301999684</v>
+        <v>-0.22712043250744637</v>
       </c>
       <c r="B23">
         <v>32.930418968200684</v>
@@ -299,7 +267,7 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>-0.11771285516256227</v>
+        <v>-0.11667621441990876</v>
       </c>
       <c r="B24">
         <v>32.109853550483443</v>
@@ -307,7 +275,7 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>-0.32943920272573923</v>
+        <v>-0.32842008509295306</v>
       </c>
       <c r="B25">
         <v>7.7037722358304865</v>
@@ -315,7 +283,7 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.11917347301883272</v>
+        <v>0.12042525776797783</v>
       </c>
       <c r="B26">
         <v>17.91203476970357</v>
@@ -323,7 +291,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.0024303545817447015</v>
+        <v>0.0035821296271766031</v>
       </c>
       <c r="B27">
         <v>25.820442570653455</v>
@@ -331,7 +299,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.18446836408236761</v>
+        <v>0.18570933676769327</v>
       </c>
       <c r="B28">
         <v>23.931763556887429</v>
@@ -339,7 +307,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.67889653904137315</v>
+        <v>0.68016383078789788</v>
       </c>
       <c r="B29">
         <v>19.590357234821983</v>
@@ -347,7 +315,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.099528040005233992</v>
+        <v>0.10072520893555095</v>
       </c>
       <c r="B30">
         <v>13.767879988557549</v>
@@ -355,7 +323,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.45010638914334949</v>
+        <v>0.45142776895230963</v>
       </c>
       <c r="B31">
         <v>16.830131746433651</v>
@@ -363,7 +331,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.068984551528557661</v>
+        <v>0.070192470260674308</v>
       </c>
       <c r="B32">
         <v>14.39840793929644</v>
@@ -371,7 +339,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>0.21839751618053835</v>
+        <v>0.21962907385090946</v>
       </c>
       <c r="B33">
         <v>15.753817858052685</v>
@@ -379,7 +347,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.14911499821286009</v>
+        <v>0.15028868466323492</v>
       </c>
       <c r="B34">
         <v>13.882512346509809</v>
@@ -387,7 +355,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.4171893150895426</v>
+        <v>0.4185363936400755</v>
       </c>
       <c r="B35">
         <v>19.70193697587634</v>
@@ -395,7 +363,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>-0.10715432739554463</v>
+        <v>-0.10606757460706809</v>
       </c>
       <c r="B36">
         <v>25.165752182141393</v>
@@ -403,7 +371,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.1063730126645851</v>
+        <v>0.10759352822340898</v>
       </c>
       <c r="B37">
         <v>26.339732827970785</v>
@@ -411,7 +379,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.74584851309042954</v>
+        <v>0.74701540686844137</v>
       </c>
       <c r="B38">
         <v>18.200749845857974</v>
@@ -419,7 +387,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>-1.7802335415281108</v>
+        <v>-1.7791449269666118</v>
       </c>
       <c r="B39">
         <v>28.262659956614176</v>
@@ -427,7 +395,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.1885996847608957</v>
+        <v>0.18981144445091366</v>
       </c>
       <c r="B40">
         <v>17.003517727981983</v>
@@ -435,7 +403,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>-1.9605577835455614</v>
+        <v>-1.9605897960025225</v>
       </c>
       <c r="B41">
         <v>23.032851147580075</v>
@@ -443,7 +411,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.16721325560687353</v>
+        <v>0.16838042685164684</v>
       </c>
       <c r="B42">
         <v>14.005500221569276</v>
@@ -451,7 +419,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>0.37021324132371669</v>
+        <v>0.37148726420548045</v>
       </c>
       <c r="B43">
         <v>18.644367945781763</v>
@@ -459,7 +427,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>0.32851487145758473</v>
+        <v>0.32982773686259031</v>
       </c>
       <c r="B44">
         <v>21.245260202970435</v>
@@ -467,7 +435,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.16323351716407555</v>
+        <v>0.16444823404584427</v>
       </c>
       <c r="B45">
         <v>12.952403261236949</v>
@@ -475,7 +443,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.015706650661967369</v>
+        <v>0.016904668472400981</v>
       </c>
       <c r="B46">
         <v>23.282094578378299</v>
@@ -483,7 +451,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>-0.27635702697951836</v>
+        <v>-0.27523661506164498</v>
       </c>
       <c r="B47">
         <v>24.269578456878662</v>
@@ -491,7 +459,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>0.30703088715050336</v>
+        <v>0.30825547797694058</v>
       </c>
       <c r="B48">
         <v>15.254583820648724</v>
@@ -499,7 +467,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>-1.3664766911340276</v>
+        <v>-1.3652461180408249</v>
       </c>
       <c r="B49">
         <v>26.477375496820777</v>
@@ -507,7 +475,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>0.19624036800638495</v>
+        <v>0.19742353103516841</v>
       </c>
       <c r="B50">
         <v>12.832244160151717</v>
@@ -515,7 +483,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>0.51752372315252115</v>
+        <v>0.51860175129837727</v>
       </c>
       <c r="B51">
         <v>17.895550259522029</v>
@@ -523,7 +491,7 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>-1.8409103468040231</v>
+        <v>-1.8410003587739863</v>
       </c>
       <c r="B52">
         <v>16.861705791161683</v>
@@ -531,7 +499,7 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>0.35297469120594527</v>
+        <v>0.35409556370229356</v>
       </c>
       <c r="B53">
         <v>23.906196966810754</v>
@@ -539,7 +507,7 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.18523987797910088</v>
+        <v>0.1864033988589241</v>
       </c>
       <c r="B54">
         <v>14.138905850611902</v>
@@ -547,7 +515,7 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.41051529807874854</v>
+        <v>0.41148319273065359</v>
       </c>
       <c r="B55">
         <v>22.266981024320433</v>
@@ -555,7 +523,7 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.23749693145638218</v>
+        <v>0.23866911193687235</v>
       </c>
       <c r="B56">
         <v>14.701697328013758</v>
@@ -563,7 +531,7 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>-2.2487832601470457</v>
+        <v>-2.2483433837065467</v>
       </c>
       <c r="B57">
         <v>30.541173678572459</v>
@@ -571,7 +539,7 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>0.45212853402984277</v>
+        <v>0.45331230714224241</v>
       </c>
       <c r="B58">
         <v>17.751280277459195</v>
@@ -579,7 +547,7 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>0.23629915632746609</v>
+        <v>0.2374929622802924</v>
       </c>
       <c r="B59">
         <v>14.467231765815191</v>
@@ -587,7 +555,7 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>0.50758884681383742</v>
+        <v>0.5087461298781264</v>
       </c>
       <c r="B60">
         <v>16.106676087787676</v>
@@ -595,7 +563,7 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.49430511519618309</v>
+        <v>0.49540611321459871</v>
       </c>
       <c r="B61">
         <v>16.857028337427089</v>
@@ -603,7 +571,7 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.21318089982262253</v>
+        <v>0.21432500056272044</v>
       </c>
       <c r="B62">
         <v>13.750192625965333</v>
@@ -611,7 +579,7 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>-2.1036805894822703</v>
+        <v>-2.1031894497912536</v>
       </c>
       <c r="B63">
         <v>34.27711754384395</v>
@@ -619,7 +587,7 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>-2.2287378956849633</v>
+        <v>-2.2286618043412219</v>
       </c>
       <c r="B64">
         <v>29.586986258338147</v>
@@ -627,7 +595,7 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.22518178791004348</v>
+        <v>0.22625803135494429</v>
       </c>
       <c r="B65">
         <v>22.492432895364743</v>
@@ -635,7 +603,7 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.42910765538114121</v>
+        <v>0.43040701895579381</v>
       </c>
       <c r="B66">
         <v>18.634689500254968</v>
@@ -643,7 +611,7 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>-1.4142342239106367</v>
+        <v>-1.4147277058592556</v>
       </c>
       <c r="B67">
         <v>21.990517683029175</v>
@@ -651,7 +619,7 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>0.25728640130655583</v>
+        <v>0.25839362346261907</v>
       </c>
       <c r="B68">
         <v>12.850306542770305</v>
@@ -659,7 +627,7 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>-2.0575792719958641</v>
+        <v>-2.0575421488902967</v>
       </c>
       <c r="B69">
         <v>16.947077605818905</v>
@@ -667,7 +635,7 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>0.31357746132483472</v>
+        <v>0.31473598457352397</v>
       </c>
       <c r="B70">
         <v>13.239185503708379</v>
@@ -675,7 +643,7 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>0.41968975052256169</v>
+        <v>0.42090554023860122</v>
       </c>
       <c r="B71">
         <v>19.240309601656367</v>
@@ -683,7 +651,7 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>-2.2009755047631252</v>
+        <v>-2.2002138395028603</v>
       </c>
       <c r="B72">
         <v>40.502815571537724</v>
@@ -691,7 +659,7 @@
     </row>
     <row r="73">
       <c r="A73">
-        <v>0.23483020908616675</v>
+        <v>0.2359545633183999</v>
       </c>
       <c r="B73">
         <v>14.674177954594294</v>
@@ -699,7 +667,7 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>-2.2785824366333762</v>
+        <v>-2.2785753724565572</v>
       </c>
       <c r="B74">
         <v>24.286047398108728</v>
@@ -707,7 +675,7 @@
     </row>
     <row r="75">
       <c r="A75">
-        <v>0.58461854369543387</v>
+        <v>0.58558799587934052</v>
       </c>
       <c r="B75">
         <v>19.570621210500736</v>
@@ -715,7 +683,7 @@
     </row>
     <row r="76">
       <c r="A76">
-        <v>0.2502611025291821</v>
+        <v>0.25141828104704228</v>
       </c>
       <c r="B76">
         <v>13.322681850695428</v>
@@ -723,7 +691,7 @@
     </row>
     <row r="77">
       <c r="A77">
-        <v>0.69663386114848047</v>
+        <v>0.69728215775174285</v>
       </c>
       <c r="B77">
         <v>18.105794964502362</v>
@@ -731,7 +699,7 @@
     </row>
     <row r="78">
       <c r="A78">
-        <v>0.56946380495489735</v>
+        <v>0.57050998339517378</v>
       </c>
       <c r="B78">
         <v>17.127708751814705</v>
@@ -739,7 +707,7 @@
     </row>
     <row r="79">
       <c r="A79">
-        <v>0.42787252307634527</v>
+        <v>0.42897861812899502</v>
       </c>
       <c r="B79">
         <v>15.773969159621803</v>
@@ -747,7 +715,7 @@
     </row>
     <row r="80">
       <c r="A80">
-        <v>0.53901952491642535</v>
+        <v>0.54008982286800045</v>
       </c>
       <c r="B80">
         <v>15.27989912109375</v>
@@ -755,7 +723,7 @@
     </row>
     <row r="81">
       <c r="A81">
-        <v>0.2511838726816808</v>
+        <v>0.2523280167178234</v>
       </c>
       <c r="B81">
         <v>12.502362533601756</v>
@@ -763,7 +731,7 @@
     </row>
     <row r="82">
       <c r="A82">
-        <v>0.32006642353591414</v>
+        <v>0.32115360605572918</v>
       </c>
       <c r="B82">
         <v>11.927459416806119</v>
@@ -771,7 +739,7 @@
     </row>
     <row r="83">
       <c r="A83">
-        <v>-2.3335555929035756</v>
+        <v>-2.3334798355897393</v>
       </c>
       <c r="B83">
         <v>37.193620787076426</v>
@@ -779,7 +747,7 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>-2.0382691471366963</v>
+        <v>-2.0382186779356108</v>
       </c>
       <c r="B84">
         <v>27.434602119705893</v>
@@ -787,7 +755,7 @@
     </row>
     <row r="85">
       <c r="A85">
-        <v>-2.3079957031858207</v>
+        <v>-2.3078810886149816</v>
       </c>
       <c r="B85">
         <v>38.408842115154052</v>
@@ -795,7 +763,7 @@
     </row>
     <row r="86">
       <c r="A86">
-        <v>-0.50026456586134982</v>
+        <v>-0.50156592873449868</v>
       </c>
       <c r="B86">
         <v>21.088238973635313</v>
@@ -803,7 +771,7 @@
     </row>
     <row r="87">
       <c r="A87">
-        <v>-2.2689779674018058</v>
+        <v>-2.2689790722172476</v>
       </c>
       <c r="B87">
         <v>28.93215216182017</v>
@@ -811,7 +779,7 @@
     </row>
     <row r="88">
       <c r="A88">
-        <v>0.31733207930981278</v>
+        <v>0.31846451583059571</v>
       </c>
       <c r="B88">
         <v>13.397396633028984</v>
@@ -819,7 +787,7 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>0.67519431346669989</v>
+        <v>0.67620356905516332</v>
       </c>
       <c r="B89">
         <v>17.628160165469364</v>
@@ -827,7 +795,7 @@
     </row>
     <row r="90">
       <c r="A90">
-        <v>0.43688752784691925</v>
+        <v>0.43814972992252299</v>
       </c>
       <c r="B90">
         <v>16.76284496951709</v>
@@ -835,7 +803,7 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>-1.9764060679647815</v>
+        <v>-1.9765876020084863</v>
       </c>
       <c r="B91">
         <v>21.9293690949238</v>
@@ -843,7 +811,7 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>0.34677202215860142</v>
+        <v>0.34785323268551993</v>
       </c>
       <c r="B92">
         <v>14.382948635499689</v>
@@ -851,7 +819,7 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>0.28768739963616402</v>
+        <v>0.28881140737407646</v>
       </c>
       <c r="B93">
         <v>12.218139864221405</v>
@@ -859,7 +827,7 @@
     </row>
     <row r="94">
       <c r="A94">
-        <v>0.6206575128967865</v>
+        <v>0.62152847688994339</v>
       </c>
       <c r="B94">
         <v>15.179124724885911</v>
@@ -867,7 +835,7 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>0.86860611060005677</v>
+        <v>0.86903672002730414</v>
       </c>
       <c r="B95">
         <v>16.535430400701198</v>
@@ -875,7 +843,7 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>0.46885600941354577</v>
+        <v>0.46995270244553977</v>
       </c>
       <c r="B96">
         <v>12.910216623257645</v>
@@ -883,7 +851,7 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>1.2316711757731047</v>
+        <v>1.230543945666662</v>
       </c>
       <c r="B97">
         <v>18.94835988555695</v>
@@ -891,7 +859,7 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>-2.3476230534522031</v>
+        <v>-2.3476077314712693</v>
       </c>
       <c r="B98">
         <v>45.07434379693234</v>
@@ -899,7 +867,7 @@
     </row>
     <row r="99">
       <c r="A99">
-        <v>0.85738404821854941</v>
+        <v>0.8579771931532385</v>
       </c>
       <c r="B99">
         <v>17.132162203498211</v>
@@ -907,7 +875,7 @@
     </row>
     <row r="100">
       <c r="A100">
-        <v>0.36156337160162844</v>
+        <v>0.36270078050168064</v>
       </c>
       <c r="B100">
         <v>13.342780075263029</v>
@@ -915,7 +883,7 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>-2.1620405400309317</v>
+        <v>-2.1620853837733542</v>
       </c>
       <c r="B101">
         <v>25.668912753080711</v>
@@ -923,7 +891,7 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>-2.2144415709537473</v>
+        <v>-2.2145252771152371</v>
       </c>
       <c r="B102">
         <v>34.870268269589076</v>
@@ -931,7 +899,7 @@
     </row>
     <row r="103">
       <c r="A103">
-        <v>0.69439711570883622</v>
+        <v>0.69529187877499743</v>
       </c>
       <c r="B103">
         <v>14.943523961477991</v>
@@ -939,7 +907,7 @@
     </row>
     <row r="104">
       <c r="A104">
-        <v>1.148917986341635</v>
+        <v>1.1477484109644598</v>
       </c>
       <c r="B104">
         <v>15.613690691390758</v>
@@ -947,7 +915,7 @@
     </row>
     <row r="105">
       <c r="A105">
-        <v>-2.0933766758645649</v>
+        <v>-2.0935113607251332</v>
       </c>
       <c r="B105">
         <v>23.842484418420064</v>
@@ -955,7 +923,7 @@
     </row>
     <row r="106">
       <c r="A106">
-        <v>-2.2299997089011203</v>
+        <v>-2.2300557509897798</v>
       </c>
       <c r="B106">
         <v>38.614801330566408</v>
@@ -963,7 +931,7 @@
     </row>
     <row r="107">
       <c r="A107">
-        <v>0.80564776385249182</v>
+        <v>0.80503219984978702</v>
       </c>
       <c r="B107">
         <v>16.67371807773841</v>
@@ -971,7 +939,7 @@
     </row>
     <row r="108">
       <c r="A108">
-        <v>0.6983310613071978</v>
+        <v>0.69948023685014815</v>
       </c>
       <c r="B108">
         <v>15.784871150766101</v>
@@ -979,7 +947,7 @@
     </row>
     <row r="109">
       <c r="A109">
-        <v>0.36504800371608342</v>
+        <v>0.36613292391084468</v>
       </c>
       <c r="B109">
         <v>12.35981758367174</v>
@@ -987,7 +955,7 @@
     </row>
     <row r="110">
       <c r="A110">
-        <v>0.31395751789525395</v>
+        <v>0.31509773778227168</v>
       </c>
       <c r="B110">
         <v>12.242873215715157</v>
@@ -995,7 +963,7 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>0.65327867548532725</v>
+        <v>0.65422381129209384</v>
       </c>
       <c r="B111">
         <v>13.341726701416656</v>
@@ -1003,7 +971,7 @@
     </row>
     <row r="112">
       <c r="A112">
-        <v>0.7300838450057614</v>
+        <v>0.73068806271076869</v>
       </c>
       <c r="B112">
         <v>15.14682802065151</v>
@@ -1011,7 +979,7 @@
     </row>
     <row r="113">
       <c r="A113">
-        <v>-0.75045292456799806</v>
+        <v>-0.75148873065686994</v>
       </c>
       <c r="B113">
         <v>19.086212145748423</v>
@@ -1019,7 +987,7 @@
     </row>
     <row r="114">
       <c r="A114">
-        <v>0.47851367901113412</v>
+        <v>0.4795637687461789</v>
       </c>
       <c r="B114">
         <v>13.04168187727449</v>
@@ -1027,7 +995,7 @@
     </row>
     <row r="115">
       <c r="A115">
-        <v>0.46141098898775268</v>
+        <v>0.46265106175724074</v>
       </c>
       <c r="B115">
         <v>13.802648863956845</v>
@@ -1035,7 +1003,7 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>-1.6336040793332749</v>
+        <v>-1.6340695896359771</v>
       </c>
       <c r="B116">
         <v>20.657639240922133</v>
@@ -1043,7 +1011,7 @@
     </row>
     <row r="117">
       <c r="A117">
-        <v>-2.2420096973163952</v>
+        <v>-2.2420948563773133</v>
       </c>
       <c r="B117">
         <v>40.821494658529176</v>
@@ -1051,7 +1019,7 @@
     </row>
     <row r="118">
       <c r="A118">
-        <v>0.43891221158222554</v>
+        <v>0.43999131068073893</v>
       </c>
       <c r="B118">
         <v>12.563941523258789</v>
@@ -1059,7 +1027,7 @@
     </row>
     <row r="119">
       <c r="A119">
-        <v>-1.8321232557214355</v>
+        <v>-1.8324335537496717</v>
       </c>
       <c r="B119">
         <v>23.758918557848251</v>
@@ -1067,7 +1035,7 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>0.53129572044274109</v>
+        <v>0.53235259968340254</v>
       </c>
       <c r="B120">
         <v>12.874673487049664</v>
@@ -1075,7 +1043,7 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>-2.281257492746156</v>
+        <v>-2.2813218855764168</v>
       </c>
       <c r="B121">
         <v>38.725557069298176</v>
@@ -1083,7 +1051,7 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>-0.8707964203914853</v>
+        <v>-0.87179441835415739</v>
       </c>
       <c r="B122">
         <v>15.862339672289396</v>
@@ -1091,7 +1059,7 @@
     </row>
     <row r="123">
       <c r="A123">
-        <v>0.80666400103250835</v>
+        <v>0.80672040912423182</v>
       </c>
       <c r="B123">
         <v>15.049936932889837</v>
@@ -1099,7 +1067,7 @@
     </row>
     <row r="124">
       <c r="A124">
-        <v>0.392168200842054</v>
+        <v>0.39325451231939723</v>
       </c>
       <c r="B124">
         <v>12.70390634938895</v>
@@ -1107,7 +1075,7 @@
     </row>
     <row r="125">
       <c r="A125">
-        <v>0.31848036920923467</v>
+        <v>0.31678202745722944</v>
       </c>
       <c r="B125">
         <v>16.255351789121782</v>
@@ -1115,7 +1083,7 @@
     </row>
     <row r="126">
       <c r="A126">
-        <v>-2.027655524135306</v>
+        <v>-2.0278188072214833</v>
       </c>
       <c r="B126">
         <v>29.994072236731832</v>
@@ -1123,7 +1091,7 @@
     </row>
     <row r="127">
       <c r="A127">
-        <v>0.61253304752601367</v>
+        <v>0.61343252731136333</v>
       </c>
       <c r="B127">
         <v>12.35067644972629</v>
@@ -1131,7 +1099,7 @@
     </row>
     <row r="128">
       <c r="A128">
-        <v>0.78445699699715477</v>
+        <v>0.78515097526693334</v>
       </c>
       <c r="B128">
         <v>13.325015302596054</v>
@@ -1139,7 +1107,7 @@
     </row>
     <row r="129">
       <c r="A129">
-        <v>0.72356495353511474</v>
+        <v>0.7246101889688491</v>
       </c>
       <c r="B129">
         <v>13.816297084898562</v>
@@ -1147,7 +1115,7 @@
     </row>
     <row r="130">
       <c r="A130">
-        <v>1.0056592303793637</v>
+        <v>1.0050461704938001</v>
       </c>
       <c r="B130">
         <v>17.141653472078062</v>
@@ -1155,7 +1123,7 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>0.18869975826819779</v>
+        <v>0.18742053251002083</v>
       </c>
       <c r="B131">
         <v>16.926263173421223</v>
@@ -1163,7 +1131,7 @@
     </row>
     <row r="132">
       <c r="A132">
-        <v>-1.8783586397667629</v>
+        <v>-1.8786160051557974</v>
       </c>
       <c r="B132">
         <v>23.263014238934183</v>
@@ -1171,7 +1139,7 @@
     </row>
     <row r="133">
       <c r="A133">
-        <v>0.54328314871833772</v>
+        <v>0.54426491933647636</v>
       </c>
       <c r="B133">
         <v>12.616244004860084</v>
@@ -1179,7 +1147,7 @@
     </row>
     <row r="134">
       <c r="A134">
-        <v>-2.0598120626057317</v>
+        <v>-2.05999322036745</v>
       </c>
       <c r="B134">
         <v>32.506399508205902</v>
@@ -1187,7 +1155,7 @@
     </row>
     <row r="135">
       <c r="A135">
-        <v>0.73521335620374206</v>
+        <v>0.73572177497386126</v>
       </c>
       <c r="B135">
         <v>14.058742938446382</v>
@@ -1195,7 +1163,7 @@
     </row>
     <row r="136">
       <c r="A136">
-        <v>0.58154428586901019</v>
+        <v>0.58253760445788094</v>
       </c>
       <c r="B136">
         <v>12.257950504253619</v>
@@ -1203,7 +1171,7 @@
     </row>
     <row r="137">
       <c r="A137">
-        <v>0.76509799588780836</v>
+        <v>0.76489704682415449</v>
       </c>
       <c r="B137">
         <v>15.400341138627066</v>
@@ -1211,7 +1179,7 @@
     </row>
     <row r="138">
       <c r="A138">
-        <v>0.70549549497412822</v>
+        <v>0.70502332863574479</v>
       </c>
       <c r="B138">
         <v>15.655734427714597</v>
@@ -1219,7 +1187,7 @@
     </row>
     <row r="139">
       <c r="A139">
-        <v>0.63115388080650481</v>
+        <v>0.63227087506826685</v>
       </c>
       <c r="B139">
         <v>12.99301137034916</v>
@@ -1227,7 +1195,7 @@
     </row>
     <row r="140">
       <c r="A140">
-        <v>0.7630524780823652</v>
+        <v>0.76371723660175861</v>
       </c>
       <c r="B140">
         <v>12.077981242863954</v>
@@ -1235,7 +1203,7 @@
     </row>
     <row r="141">
       <c r="A141">
-        <v>-0.78096617181758765</v>
+        <v>-0.78200564630037228</v>
       </c>
       <c r="B141">
         <v>21.55401679089195</v>
@@ -1243,7 +1211,7 @@
     </row>
     <row r="142">
       <c r="A142">
-        <v>-1.428440305822831</v>
+        <v>-1.4288380661592603</v>
       </c>
       <c r="B142">
         <v>20.239507274773285</v>
@@ -1251,7 +1219,7 @@
     </row>
     <row r="143">
       <c r="A143">
-        <v>-1.9011763531480597</v>
+        <v>-1.9014865302241453</v>
       </c>
       <c r="B143">
         <v>33.114285596211751</v>
@@ -1259,7 +1227,7 @@
     </row>
     <row r="144">
       <c r="A144">
-        <v>-1.7120170833061785</v>
+        <v>-1.7124168781942917</v>
       </c>
       <c r="B144">
         <v>25.366799882344271</v>
@@ -1267,7 +1235,7 @@
     </row>
     <row r="145">
       <c r="A145">
-        <v>-2.0879019025325354</v>
+        <v>-2.0880839873012187</v>
       </c>
       <c r="B145">
         <v>35.467621907918804</v>
@@ -1275,7 +1243,7 @@
     </row>
     <row r="146">
       <c r="A146">
-        <v>0.51201083131401104</v>
+        <v>0.51301358138277509</v>
       </c>
       <c r="B146">
         <v>11.9601232665926</v>
@@ -1283,7 +1251,7 @@
     </row>
     <row r="147">
       <c r="A147">
-        <v>0.64106416325908466</v>
+        <v>0.64191019798399374</v>
       </c>
       <c r="B147">
         <v>13.007774246584056</v>
@@ -1291,7 +1259,7 @@
     </row>
     <row r="148">
       <c r="A148">
-        <v>0.73903338536677154</v>
+        <v>0.73981604249370991</v>
       </c>
       <c r="B148">
         <v>13.610574448208849</v>
@@ -1299,7 +1267,7 @@
     </row>
     <row r="149">
       <c r="A149">
-        <v>0.78272022833559818</v>
+        <v>0.78268972815302651</v>
       </c>
       <c r="B149">
         <v>13.651048055672186</v>
@@ -1307,7 +1275,7 @@
     </row>
     <row r="150">
       <c r="A150">
-        <v>0.83553190080719875</v>
+        <v>0.83502481068191392</v>
       </c>
       <c r="B150">
         <v>14.05953016049332</v>
@@ -1315,7 +1283,7 @@
     </row>
     <row r="151">
       <c r="A151">
-        <v>0.60110129942972834</v>
+        <v>0.60201705407810502</v>
       </c>
       <c r="B151">
         <v>11.839508232226871</v>
@@ -1323,7 +1291,7 @@
     </row>
     <row r="152">
       <c r="A152">
-        <v>-2.0267387294166341</v>
+        <v>-2.0269450814789689</v>
       </c>
       <c r="B152">
         <v>34.880891504463243</v>
@@ -1331,7 +1299,7 @@
     </row>
     <row r="153">
       <c r="A153">
-        <v>-0.43437797944961321</v>
+        <v>-0.43557307459281125</v>
       </c>
       <c r="B153">
         <v>17.938587076345065</v>
@@ -1339,7 +1307,7 @@
     </row>
     <row r="154">
       <c r="A154">
-        <v>0.80003382161480951</v>
+        <v>0.80033105627955869</v>
       </c>
       <c r="B154">
         <v>13.112683782226776</v>
@@ -1347,7 +1315,7 @@
     </row>
     <row r="155">
       <c r="A155">
-        <v>0.21028660699483764</v>
+        <v>0.20870540152886241</v>
       </c>
       <c r="B155">
         <v>17.801487681964716</v>
@@ -1355,7 +1323,7 @@
     </row>
     <row r="156">
       <c r="A156">
-        <v>-1.6428528687225834</v>
+        <v>-1.6433349325254367</v>
       </c>
       <c r="B156">
         <v>22.539818669593384</v>
@@ -1363,7 +1331,7 @@
     </row>
     <row r="157">
       <c r="A157">
-        <v>0.70986030138949019</v>
+        <v>0.71053739652181225</v>
       </c>
       <c r="B157">
         <v>11.783321938489118</v>
@@ -1371,7 +1339,7 @@
     </row>
     <row r="158">
       <c r="A158">
-        <v>0.92762009371600929</v>
+        <v>0.92757435200433791</v>
       </c>
       <c r="B158">
         <v>12.813600039045097</v>
@@ -1379,7 +1347,7 @@
     </row>
     <row r="159">
       <c r="A159">
-        <v>-1.6693061765796851</v>
+        <v>-1.6697693463510583</v>
       </c>
       <c r="B159">
         <v>26.311888939455937</v>
@@ -1387,7 +1355,7 @@
     </row>
     <row r="160">
       <c r="A160">
-        <v>0.65779304344517919</v>
+        <v>0.65853456414662304</v>
       </c>
       <c r="B160">
         <v>11.857168020895863</v>
@@ -1395,7 +1363,7 @@
     </row>
     <row r="161">
       <c r="A161">
-        <v>0.77985753937918822</v>
+        <v>0.78036370840711378</v>
       </c>
       <c r="B161">
         <v>12.450835469402845</v>
@@ -1403,7 +1371,7 @@
     </row>
     <row r="162">
       <c r="A162">
-        <v>-1.0939597153174705</v>
+        <v>-1.0948236947198489</v>
       </c>
       <c r="B162">
         <v>21.173771244919951</v>
@@ -1411,7 +1379,7 @@
     </row>
     <row r="163">
       <c r="A163">
-        <v>0.78589736432682211</v>
+        <v>0.78654313570270162</v>
       </c>
       <c r="B163">
         <v>12.739049861487169</v>
@@ -1419,7 +1387,7 @@
     </row>
     <row r="164">
       <c r="A164">
-        <v>0.84572565738865624</v>
+        <v>0.84420539843291575</v>
       </c>
       <c r="B164">
         <v>18.316587784800667</v>
@@ -1427,7 +1395,7 @@
     </row>
     <row r="165">
       <c r="A165">
-        <v>-1.8308393120024977</v>
+        <v>-1.8311784204815102</v>
       </c>
       <c r="B165">
         <v>33.871830576803625</v>
@@ -1435,7 +1403,7 @@
     </row>
     <row r="166">
       <c r="A166">
-        <v>-1.2597474802903186</v>
+        <v>-1.2604664532807999</v>
       </c>
       <c r="B166">
         <v>20.395835149699245</v>
@@ -1443,7 +1411,7 @@
     </row>
     <row r="167">
       <c r="A167">
-        <v>0.73018640640090327</v>
+        <v>0.72891457998359477</v>
       </c>
       <c r="B167">
         <v>14.841084398621225</v>
@@ -1451,7 +1419,7 @@
     </row>
     <row r="168">
       <c r="A168">
-        <v>0.86825367346786142</v>
+        <v>0.86857872018885407</v>
       </c>
       <c r="B168">
         <v>12.887711841731527</v>
@@ -1459,7 +1427,7 @@
     </row>
     <row r="169">
       <c r="A169">
-        <v>0.14148113240260166</v>
+        <v>0.14009751511280252</v>
       </c>
       <c r="B169">
         <v>19.718620939060742</v>
@@ -1467,7 +1435,7 @@
     </row>
     <row r="170">
       <c r="A170">
-        <v>0.89908488213561133</v>
+        <v>0.89836779762636387</v>
       </c>
       <c r="B170">
         <v>15.248470393600167</v>
@@ -1475,7 +1443,7 @@
     </row>
     <row r="171">
       <c r="A171">
-        <v>-1.7160433899859664</v>
+        <v>-1.7164778043406237</v>
       </c>
       <c r="B171">
         <v>28.295140452414564</v>
@@ -1483,7 +1451,7 @@
     </row>
     <row r="172">
       <c r="A172">
-        <v>0.84467757257034448</v>
+        <v>0.84468925446643428</v>
       </c>
       <c r="B172">
         <v>12.923725462708799</v>
@@ -1491,7 +1459,7 @@
     </row>
     <row r="173">
       <c r="A173">
-        <v>0.68780844619623682</v>
+        <v>0.68846883753508026</v>
       </c>
       <c r="B173">
         <v>11.395412096336706</v>
@@ -1499,7 +1467,7 @@
     </row>
     <row r="174">
       <c r="A174">
-        <v>0.72665198607736614</v>
+        <v>0.72718674755401436</v>
       </c>
       <c r="B174">
         <v>11.569629055762578</v>
@@ -1507,7 +1475,7 @@
     </row>
     <row r="175">
       <c r="A175">
-        <v>-1.7291349449930036</v>
+        <v>-1.7295290113904001</v>
       </c>
       <c r="B175">
         <v>31.617022126148907</v>
@@ -1515,7 +1483,7 @@
     </row>
     <row r="176">
       <c r="A176">
-        <v>0.84396329677117266</v>
+        <v>0.84367177761636014</v>
       </c>
       <c r="B176">
         <v>14.179555894792543</v>
@@ -1523,7 +1491,7 @@
     </row>
     <row r="177">
       <c r="A177">
-        <v>-1.5047902651072074</v>
+        <v>-1.505339992168619</v>
       </c>
       <c r="B177">
         <v>27.209238055434643</v>
@@ -1531,7 +1499,7 @@
     </row>
     <row r="178">
       <c r="A178">
-        <v>1.2890045482900412</v>
+        <v>1.2872351028194977</v>
       </c>
       <c r="B178">
         <v>17.189688486211441</v>
@@ -1539,7 +1507,7 @@
     </row>
     <row r="179">
       <c r="A179">
-        <v>-0.13533816750504638</v>
+        <v>-0.13682204267819184</v>
       </c>
       <c r="B179">
         <v>16.80782911825699</v>
@@ -1547,7 +1515,7 @@
     </row>
     <row r="180">
       <c r="A180">
-        <v>0.92808466566975623</v>
+        <v>0.92788747736536803</v>
       </c>
       <c r="B180">
         <v>11.794212579027999</v>
@@ -1555,7 +1523,7 @@
     </row>
     <row r="181">
       <c r="A181">
-        <v>0.96340804464829621</v>
+        <v>0.96255105279095809</v>
       </c>
       <c r="B181">
         <v>12.2506979392057</v>
@@ -1563,7 +1531,7 @@
     </row>
     <row r="182">
       <c r="A182">
-        <v>0.74946326955466513</v>
+        <v>0.74737236653198913</v>
       </c>
       <c r="B182">
         <v>15.998015133391288</v>
@@ -1571,7 +1539,7 @@
     </row>
     <row r="183">
       <c r="A183">
-        <v>0.80320095996577034</v>
+        <v>0.80357239297615135</v>
       </c>
       <c r="B183">
         <v>12.027813437021324</v>
@@ -1579,7 +1547,7 @@
     </row>
     <row r="184">
       <c r="A184">
-        <v>1.0278467701154044</v>
+        <v>1.0278447272146876</v>
       </c>
       <c r="B184">
         <v>12.038596170772495</v>
@@ -1587,7 +1555,7 @@
     </row>
     <row r="185">
       <c r="A185">
-        <v>-1.3109270834892857</v>
+        <v>-1.3116504460294793</v>
       </c>
       <c r="B185">
         <v>20.189792193135908</v>
@@ -1595,7 +1563,7 @@
     </row>
     <row r="186">
       <c r="A186">
-        <v>0.89692263070440792</v>
+        <v>0.89699020186540357</v>
       </c>
       <c r="B186">
         <v>11.962895574866694</v>
@@ -1603,7 +1571,7 @@
     </row>
     <row r="187">
       <c r="A187">
-        <v>0.84580731382177654</v>
+        <v>0.8459086628863749</v>
       </c>
       <c r="B187">
         <v>11.834141663776874</v>
@@ -1611,7 +1579,7 @@
     </row>
     <row r="188">
       <c r="A188">
-        <v>0.83529350464750474</v>
+        <v>0.83455598438299305</v>
       </c>
       <c r="B188">
         <v>15.456724545113126</v>
@@ -1619,7 +1587,7 @@
     </row>
     <row r="189">
       <c r="A189">
-        <v>-1.4299842381489001</v>
+        <v>-1.4306663899452312</v>
       </c>
       <c r="B189">
         <v>24.626021390990282</v>
@@ -1627,7 +1595,7 @@
     </row>
     <row r="190">
       <c r="A190">
-        <v>-0.91581823573901389</v>
+        <v>-0.91676288466515132</v>
       </c>
       <c r="B190">
         <v>19.478294519277718</v>
@@ -1635,7 +1603,7 @@
     </row>
     <row r="191">
       <c r="A191">
-        <v>0.91921288856061933</v>
+        <v>0.91904241658250785</v>
       </c>
       <c r="B191">
         <v>12.06159739844543</v>
@@ -1643,7 +1611,7 @@
     </row>
     <row r="192">
       <c r="A192">
-        <v>-1.5190049865092374</v>
+        <v>-1.5195209014816553</v>
       </c>
       <c r="B192">
         <v>32.596226591812936</v>
@@ -1651,7 +1619,7 @@
     </row>
     <row r="193">
       <c r="A193">
-        <v>-0.19522015881150573</v>
+        <v>-0.19631706450262121</v>
       </c>
       <c r="B193">
         <v>20.193964507731984</v>
@@ -1659,7 +1627,7 @@
     </row>
     <row r="194">
       <c r="A194">
-        <v>1.0082782180725576</v>
+        <v>1.0065571316011357</v>
       </c>
       <c r="B194">
         <v>18.117443822989266</v>
@@ -1667,7 +1635,7 @@
     </row>
     <row r="195">
       <c r="A195">
-        <v>0.54359462971407624</v>
+        <v>0.54200364417389246</v>
       </c>
       <c r="B195">
         <v>18.997166903928029</v>
@@ -1675,7 +1643,7 @@
     </row>
     <row r="196">
       <c r="A196">
-        <v>0.88582589456026217</v>
+        <v>0.88404119191280806</v>
       </c>
       <c r="B196">
         <v>14.197158550778296</v>
@@ -1683,7 +1651,7 @@
     </row>
     <row r="197">
       <c r="A197">
-        <v>0.82310661034083765</v>
+        <v>0.82254737434115133</v>
       </c>
       <c r="B197">
         <v>11.578003311157227</v>
@@ -1691,7 +1659,7 @@
     </row>
     <row r="198">
       <c r="A198">
-        <v>-1.4772391221490266</v>
+        <v>-1.4778201952755705</v>
       </c>
       <c r="B198">
         <v>25.796518325805664</v>
@@ -1699,7 +1667,7 @@
     </row>
     <row r="199">
       <c r="A199">
-        <v>0.89823801378912416</v>
+        <v>0.89808660020971798</v>
       </c>
       <c r="B199">
         <v>11.592490399838242</v>
@@ -1707,7 +1675,7 @@
     </row>
     <row r="200">
       <c r="A200">
-        <v>0.89940818765936614</v>
+        <v>0.89834767220247291</v>
       </c>
       <c r="B200">
         <v>13.252342990770138</v>
@@ -1715,7 +1683,7 @@
     </row>
     <row r="201">
       <c r="A201">
-        <v>0.8576938179877498</v>
+        <v>0.85599091247682524</v>
       </c>
       <c r="B201">
         <v>17.638520858071068</v>
@@ -1723,7 +1691,7 @@
     </row>
     <row r="202">
       <c r="A202">
-        <v>0.92947184075528078</v>
+        <v>0.92929844147985874</v>
       </c>
       <c r="B202">
         <v>11.391887588854189</v>
@@ -1731,7 +1699,7 @@
     </row>
     <row r="203">
       <c r="A203">
-        <v>-1.0950142025182563</v>
+        <v>-1.0958382433578455</v>
       </c>
       <c r="B203">
         <v>25.577120922545841</v>
@@ -1739,7 +1707,7 @@
     </row>
     <row r="204">
       <c r="A204">
-        <v>0.26434490751089501</v>
+        <v>0.26269920073981767</v>
       </c>
       <c r="B204">
         <v>16.681351877310696</v>
@@ -1747,7 +1715,7 @@
     </row>
     <row r="205">
       <c r="A205">
-        <v>-1.2456197365291515</v>
+        <v>-1.2464209002284858</v>
       </c>
       <c r="B205">
         <v>25.005025774240494</v>
@@ -1755,7 +1723,7 @@
     </row>
     <row r="206">
       <c r="A206">
-        <v>0.89136544505294923</v>
+        <v>0.88997814840301392</v>
       </c>
       <c r="B206">
         <v>12.031468800596288</v>
@@ -1763,7 +1731,7 @@
     </row>
     <row r="207">
       <c r="A207">
-        <v>0.9267241168790834</v>
+        <v>0.92608957975458783</v>
       </c>
       <c r="B207">
         <v>11.683021512578746</v>
@@ -1771,7 +1739,7 @@
     </row>
     <row r="208">
       <c r="A208">
-        <v>0.89937235073360144</v>
+        <v>0.89902568386075121</v>
       </c>
       <c r="B208">
         <v>11.565410338077449</v>
@@ -1779,7 +1747,7 @@
     </row>
     <row r="209">
       <c r="A209">
-        <v>0.69470700529402196</v>
+        <v>0.6927662505210086</v>
       </c>
       <c r="B209">
         <v>14.643673142932711</v>
@@ -1787,7 +1755,7 @@
     </row>
     <row r="210">
       <c r="A210">
-        <v>0.93179450732807456</v>
+        <v>0.93086961268069202</v>
       </c>
       <c r="B210">
         <v>11.256463923848662</v>
@@ -1795,7 +1763,7 @@
     </row>
     <row r="211">
       <c r="A211">
-        <v>-0.34406456429140425</v>
+        <v>-0.34535204385274587</v>
       </c>
       <c r="B211">
         <v>21.139793582625117</v>
@@ -1803,7 +1771,7 @@
     </row>
     <row r="212">
       <c r="A212">
-        <v>0.9244622659045838</v>
+        <v>0.92278738251394699</v>
       </c>
       <c r="B212">
         <v>16.35136377518479</v>
@@ -1811,7 +1779,7 @@
     </row>
     <row r="213">
       <c r="A213">
-        <v>-0.96585884485097628</v>
+        <v>-0.96676797259766989</v>
       </c>
       <c r="B213">
         <v>21.7024061827533</v>
@@ -1819,7 +1787,7 @@
     </row>
     <row r="214">
       <c r="A214">
-        <v>0.87065758325500486</v>
+        <v>0.86999296562749484</v>
       </c>
       <c r="B214">
         <v>11.406124405990555</v>
@@ -1827,7 +1795,7 @@
     </row>
     <row r="215">
       <c r="A215">
-        <v>-1.2140352275891098</v>
+        <v>-1.2147699167139479</v>
       </c>
       <c r="B215">
         <v>24.972113121102709</v>
@@ -1835,7 +1803,7 @@
     </row>
     <row r="216">
       <c r="A216">
-        <v>-0.084858032136012049</v>
+        <v>-0.086199086998863111</v>
       </c>
       <c r="B216">
         <v>19.544711841209494</v>
@@ -1843,7 +1811,7 @@
     </row>
     <row r="217">
       <c r="A217">
-        <v>-1.1935673053419327</v>
+        <v>-1.1943138273084635</v>
       </c>
       <c r="B217">
         <v>22.321626872192194</v>
@@ -1851,7 +1819,7 @@
     </row>
     <row r="218">
       <c r="A218">
-        <v>0.85719339383775872</v>
+        <v>0.85573611556138751</v>
       </c>
       <c r="B218">
         <v>11.728872952288134</v>
@@ -1859,7 +1827,7 @@
     </row>
     <row r="219">
       <c r="A219">
-        <v>0.64734011835168104</v>
+        <v>0.64563372898208493</v>
       </c>
       <c r="B219">
         <v>18.591829009540071</v>
@@ -1867,7 +1835,7 @@
     </row>
     <row r="220">
       <c r="A220">
-        <v>0.90464878736146892</v>
+        <v>0.90267737620539501</v>
       </c>
       <c r="B220">
         <v>13.894960656643672</v>
@@ -1875,7 +1843,7 @@
     </row>
     <row r="221">
       <c r="A221">
-        <v>0.83449918887780505</v>
+        <v>0.83272738045913453</v>
       </c>
       <c r="B221">
         <v>15.994690649709817</v>
@@ -1883,7 +1851,7 @@
     </row>
     <row r="222">
       <c r="A222">
-        <v>0.86437356395918696</v>
+        <v>0.86302911439556285</v>
       </c>
       <c r="B222">
         <v>12.756847801883664</v>
@@ -1891,7 +1859,7 @@
     </row>
     <row r="223">
       <c r="A223">
-        <v>0.88413491512612086</v>
+        <v>0.88311397810267156</v>
       </c>
       <c r="B223">
         <v>11.913860585386502</v>
@@ -1899,7 +1867,7 @@
     </row>
     <row r="224">
       <c r="A224">
-        <v>0.87445238782438195</v>
+        <v>0.87348373557016756</v>
       </c>
       <c r="B224">
         <v>11.426562813768614</v>
@@ -1907,7 +1875,7 @@
     </row>
     <row r="225">
       <c r="A225">
-        <v>-0.8022159596465871</v>
+        <v>-0.8032185786639946</v>
       </c>
       <c r="B225">
         <v>23.702133219763144</v>
@@ -1915,7 +1883,7 @@
     </row>
     <row r="226">
       <c r="A226">
-        <v>0.84914925851511991</v>
+        <v>0.84769668772146856</v>
       </c>
       <c r="B226">
         <v>11.057017393438535</v>
@@ -1923,7 +1891,7 @@
     </row>
     <row r="227">
       <c r="A227">
-        <v>-0.12920081247380746</v>
+        <v>-0.13060912785630804</v>
       </c>
       <c r="B227">
         <v>21.38997909654309</v>
@@ -1931,7 +1899,7 @@
     </row>
     <row r="228">
       <c r="A228">
-        <v>0.4733076487749156</v>
+        <v>0.47151121387195599</v>
       </c>
       <c r="B228">
         <v>17.84505008061727</v>
@@ -1939,7 +1907,7 @@
     </row>
     <row r="229">
       <c r="A229">
-        <v>-0.55700121801760216</v>
+        <v>-0.55813764228904705</v>
       </c>
       <c r="B229">
         <v>20.636067177699161</v>
@@ -1947,7 +1915,7 @@
     </row>
     <row r="230">
       <c r="A230">
-        <v>0.81640187114007823</v>
+        <v>0.81466559615256984</v>
       </c>
       <c r="B230">
         <v>13.547270634548724</v>
@@ -1955,7 +1923,7 @@
     </row>
     <row r="231">
       <c r="A231">
-        <v>-0.33216136219275777</v>
+        <v>-0.33340170396210073</v>
       </c>
       <c r="B231">
         <v>20.317730856279955</v>
@@ -1963,7 +1931,7 @@
     </row>
     <row r="232">
       <c r="A232">
-        <v>0.84608937350477909</v>
+        <v>0.84472001010044984</v>
       </c>
       <c r="B232">
         <v>11.182574475945932</v>
@@ -1971,7 +1939,7 @@
     </row>
     <row r="233">
       <c r="A233">
-        <v>0.82091702452900939</v>
+        <v>0.8196221664745631</v>
       </c>
       <c r="B233">
         <v>13.093085685631264</v>
@@ -1979,7 +1947,7 @@
     </row>
     <row r="234">
       <c r="A234">
-        <v>-0.44775336272676758</v>
+        <v>-0.44893707220949003</v>
       </c>
       <c r="B234">
         <v>20.666306775963825</v>
@@ -1987,7 +1955,7 @@
     </row>
     <row r="235">
       <c r="A235">
-        <v>0.50131835169905903</v>
+        <v>0.49951334201853059</v>
       </c>
       <c r="B235">
         <v>17.488196479495858</v>
@@ -1995,7 +1963,7 @@
     </row>
     <row r="236">
       <c r="A236">
-        <v>0.8563576753021015</v>
+        <v>0.85442087541301426</v>
       </c>
       <c r="B236">
         <v>14.414095768051501</v>
@@ -2003,7 +1971,7 @@
     </row>
     <row r="237">
       <c r="A237">
-        <v>0.73642166143418919</v>
+        <v>0.73474689360112966</v>
       </c>
       <c r="B237">
         <v>11.800872102628983</v>
@@ -2011,7 +1979,7 @@
     </row>
     <row r="238">
       <c r="A238">
-        <v>-0.2510009794375897</v>
+        <v>-0.25230061715313101</v>
       </c>
       <c r="B238">
         <v>18.469175587008628</v>
@@ -2019,7 +1987,7 @@
     </row>
     <row r="239">
       <c r="A239">
-        <v>0.70595329292455167</v>
+        <v>0.70419750553729166</v>
       </c>
       <c r="B239">
         <v>13.764485606008066</v>
@@ -2027,7 +1995,7 @@
     </row>
     <row r="240">
       <c r="A240">
-        <v>0.8224454824681271</v>
+        <v>0.8210357410546345</v>
       </c>
       <c r="B240">
         <v>11.737910326137099</v>
@@ -2035,7 +2003,7 @@
     </row>
     <row r="241">
       <c r="A241">
-        <v>0.60928048465752327</v>
+        <v>0.60734534924783745</v>
       </c>
       <c r="B241">
         <v>16.259540650939943</v>
@@ -2043,7 +2011,7 @@
     </row>
     <row r="242">
       <c r="A242">
-        <v>0.22586422998294597</v>
+        <v>0.22426038673987453</v>
       </c>
       <c r="B242">
         <v>16.294495293840743</v>
@@ -2051,7 +2019,7 @@
     </row>
     <row r="243">
       <c r="A243">
-        <v>0.80145226654735069</v>
+        <v>0.79974886169255122</v>
       </c>
       <c r="B243">
         <v>12.988444935916657</v>
@@ -2059,7 +2027,7 @@
     </row>
     <row r="244">
       <c r="A244">
-        <v>0.6363148405857243</v>
+        <v>0.63447194932284912</v>
       </c>
       <c r="B244">
         <v>11.812862528165182</v>
@@ -2067,7 +2035,7 @@
     </row>
     <row r="245">
       <c r="A245">
-        <v>0.75589057597554454</v>
+        <v>0.75424253583363066</v>
       </c>
       <c r="B245">
         <v>10.756183131291316</v>
@@ -2075,7 +2043,7 @@
     </row>
     <row r="246">
       <c r="A246">
-        <v>0.17294186484818622</v>
+        <v>0.17137944814204609</v>
       </c>
       <c r="B246">
         <v>15.800249211928424</v>
@@ -2083,7 +2051,7 @@
     </row>
     <row r="247">
       <c r="A247">
-        <v>0.50365626504618033</v>
+        <v>0.5018603827036674</v>
       </c>
       <c r="B247">
         <v>15.756910609243937</v>
@@ -2091,7 +2059,7 @@
     </row>
     <row r="248">
       <c r="A248">
-        <v>0.72243806586109971</v>
+        <v>0.72042702423748095</v>
       </c>
       <c r="B248">
         <v>13.702683035331436</v>
@@ -2099,7 +2067,7 @@
     </row>
     <row r="249">
       <c r="A249">
-        <v>0.70017751351166135</v>
+        <v>0.69833203780071618</v>
       </c>
       <c r="B249">
         <v>11.828772240621181</v>
@@ -2107,7 +2075,7 @@
     </row>
     <row r="250">
       <c r="A250">
-        <v>0.56491500759500857</v>
+        <v>0.56299498413897231</v>
       </c>
       <c r="B250">
         <v>12.353287587472058</v>
@@ -2115,7 +2083,7 @@
     </row>
     <row r="251">
       <c r="A251">
-        <v>0.53418126722187598</v>
+        <v>0.53228004645486304</v>
       </c>
       <c r="B251">
         <v>14.27372304699089</v>
